--- a/medicine/Enfance/Malorie_Blackman/Malorie_Blackman.xlsx
+++ b/medicine/Enfance/Malorie_Blackman/Malorie_Blackman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malorie Blackman, née le 8 février 1962 à Clapham à Londres, est une écrivaine britannique spécialisée en littérature pour la jeunesse.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Peckham, Malorie Blackman devient programmeuse informatique. Elle obtient ensuite un Higher National Certificate à l’université de Greenwich ainsi qu’un diplôme de la National Film and Television School. Elle se marie au début des années 1980 et met au monde sa fille en 1995.
 Son premier livre Not So Stupid (publié en novembre 1990) est un recueil de nouvelles d’horreur et de science-fiction pour adolescents. Depuis, elle a publié plus de 50 ouvrages pour la jeunesse ainsi que différents scripts pour la télévision. Elle a remporté plus de quinze prix différents et ses ouvrages ont été traduits en français, espagnol, allemand et italien.
 Le prix PEN Pinter (en) 2022 lui est attribué.
-En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -547,15 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Entre chiens et loups
-Entre chiens et loups, Milan, 2005 ((en) Noughts and Crosses, 2001)Prix ado-lisant en 2007 et prix Gr'Aisne de critique 2010
+          <t>Série Entre chiens et loups</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Entre chiens et loups, Milan, 2005 ((en) Noughts and Crosses, 2001)Prix ado-lisant en 2007 et prix Gr'Aisne de critique 2010
 La Couleur de la haine, Milan, 2006 ((en) Knife Edge, 2004)
 Le Choix d'aimer, Milan, 2006 ((en) Checkmate, 2005)
 Le Retour de l'aube, Milan, 2009 ((en) Double Cross, 2008)
 Entre les lignes, Milan, 2020 ((en) Crossfire, 2019)
-La Dernière Chance, Milan, 2022 ((en) Endgame, 2021)
-Romans indépendants
-La Couleur de la peur, Milan, 2008 ((en) The Stuff of Nightmares, 2007)
+La Dernière Chance, Milan, 2022 ((en) Endgame, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malorie_Blackman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malorie_Blackman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres traduites en français</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Couleur de la peur, Milan, 2008 ((en) The Stuff of Nightmares, 2007)
 Boys Don't Cry, Milan, 2011 ((en) Boys Don't Cry, 2010)Prix Gr'Aisne de critique 2013
 Les Insurgés, Milan, 2015 ((en) Noble Conflict, 2013)
 Contact, Milan, 2017 ((en) Contact, 2015)
@@ -564,34 +617,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Malorie_Blackman</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Malorie_Blackman</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2022 : prix PEN Pinter (en)
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée[1]</t>
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée</t>
         </is>
       </c>
     </row>
